--- a/data/Methanol.xlsx
+++ b/data/Methanol.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20848F29-5132-43B0-8AF6-996B7A675515}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4037C308-C67F-4EF2-B5B2-73CB2E3E5639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23280" yWindow="3945" windowWidth="21600" windowHeight="12735" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EAM" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
     <t>tonsCO2emissionsperkWh</t>
   </si>
   <si>
-    <t>TACEmissionWeightFactor</t>
+    <t>AbsHeatLoadTol</t>
   </si>
 </sst>
 </file>
@@ -1951,7 +1951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q29" sqref="Q29"/>
     </sheetView>
@@ -2852,15 +2852,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2888,7 +2889,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
